--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_33.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2706885.179669969</v>
+        <v>2811064.814121041</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>8818355.269125724</v>
+        <v>8818355.269125722</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +661,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>90.505191218824</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292592</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,19 +712,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>241.8544689997841</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -756,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734107401</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -817,10 +819,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -829,10 +831,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -862,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004732</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -871,19 +873,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>231.3748811585036</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>393.2540647939305</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -944,22 +946,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>57.8157898639751</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1060,16 +1062,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>125.3958429098022</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1099,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1139,7 +1141,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>15.03347606442179</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1193,10 +1195,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>330.1313724127978</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1291,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.28790185442867</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>21.05800467014559</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1370,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710085</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1379,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417115</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187867</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701359</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784691</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1528,19 +1530,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703275</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>40.6779369009417</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1771,19 +1773,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>19.51567534720853</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,19 +1821,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>151.5133592021562</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1892,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2008,7 +2010,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -2020,7 +2022,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2062,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>75.55208621972916</v>
+        <v>73.56194264363525</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2081,13 +2083,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
@@ -2129,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>107.387005480723</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2254,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>35.63623515385353</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2476,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,10 +2532,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>20.89983420622057</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2542,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>32.05158559392667</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634815</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2561,13 +2563,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2716,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>68.17501931583824</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>186.66643877102</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2798,7 +2800,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>131.4244133395515</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3077,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
         <v>250.9057009881286</v>
@@ -3092,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784694</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3196,16 +3198,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>79.41314830963806</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3250,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>10.74993283584344</v>
       </c>
     </row>
     <row r="35">
@@ -3269,7 +3271,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
@@ -3314,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,19 +3423,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
@@ -3442,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>251.435935906478</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
         <v>286.522998336591</v>
@@ -3551,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U38" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V38" t="n">
         <v>327.7522584701349</v>
@@ -3658,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>142.3046100066283</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3895,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>174.8493187430275</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3961,7 +3963,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4031,7 +4033,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
@@ -4138,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>34.00490843294757</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428269</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4195,7 +4197,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
@@ -4304,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1681.836054204828</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1590.416669135309</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
         <v>1232.150970528558</v>
@@ -4325,13 +4327,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.391247391209</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810556</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4346,34 +4348,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2717.487232975976</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2364.718577705862</v>
       </c>
       <c r="X2" t="n">
-        <v>2071.97538618064</v>
+        <v>1991.252819444782</v>
       </c>
       <c r="Y2" t="n">
-        <v>1681.836054204828</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="3">
@@ -4404,31 +4406,31 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>458.6408346941415</v>
+        <v>2489.924953962484</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6408346941415</v>
+        <v>2320.988771034577</v>
       </c>
       <c r="D4" t="n">
-        <v>458.6408346941415</v>
+        <v>2170.872131622242</v>
       </c>
       <c r="E4" t="n">
-        <v>310.7277411117484</v>
+        <v>2022.959038039849</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>1876.069090541939</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>1708.366253916658</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>1562.149067134515</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>1464.823389952861</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>1509.946022399796</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279955</v>
+        <v>1713.933205348673</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764916</v>
+        <v>2030.493003797169</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760407</v>
+        <v>2374.650049396718</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581906</v>
+        <v>2716.058426102582</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>3015.388025022996</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>3247.995525456655</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>3235.775364366698</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672848</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672848</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="U4" t="n">
-        <v>1356.675339798491</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="V4" t="n">
-        <v>1101.990851592604</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="W4" t="n">
-        <v>868.2788504223986</v>
+        <v>3044.089480193524</v>
       </c>
       <c r="X4" t="n">
-        <v>640.2892995243812</v>
+        <v>2892.365997936254</v>
       </c>
       <c r="Y4" t="n">
-        <v>640.2892995243812</v>
+        <v>2671.573418792724</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1569.10175931188</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C5" t="n">
-        <v>1200.139242371469</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>1200.139242371469</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>814.3509897732242</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,10 +4567,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329465</v>
@@ -4580,7 +4582,7 @@
         <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4594,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883008</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V5" t="n">
-        <v>3072.075344883008</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W5" t="n">
-        <v>2719.306689612893</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="X5" t="n">
-        <v>2345.840931351814</v>
+        <v>2366.344253709365</v>
       </c>
       <c r="Y5" t="n">
-        <v>1955.701599376002</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="6">
@@ -4635,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064542</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659.1173538559952</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>490.1811709280884</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>340.0645315157526</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>340.0645315157526</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>193.1745840178422</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>193.1745840178422</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218343</v>
@@ -4747,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>879.9099329995254</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.1173538559952</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4778,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1292.833068744076</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="C8" t="n">
-        <v>1292.833068744076</v>
+        <v>1605.601998493311</v>
       </c>
       <c r="D8" t="n">
-        <v>934.5673701373257</v>
+        <v>1247.33629988656</v>
       </c>
       <c r="E8" t="n">
-        <v>934.5673701373257</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4826,13 +4828,13 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
         <v>2755.806928794324</v>
@@ -4841,13 +4843,13 @@
         <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2403.038273524209</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2069.572240784009</v>
+        <v>2382.341170533244</v>
       </c>
       <c r="Y8" t="n">
-        <v>1679.432908808198</v>
+        <v>1992.201838557432</v>
       </c>
     </row>
     <row r="9">
@@ -4857,37 +4859,37 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>698.2614681692856</v>
+        <v>720.7556739678752</v>
       </c>
       <c r="C10" t="n">
-        <v>698.2614681692856</v>
+        <v>551.8194910399683</v>
       </c>
       <c r="D10" t="n">
-        <v>548.1448287569499</v>
+        <v>401.7028516276325</v>
       </c>
       <c r="E10" t="n">
-        <v>456.9449278938906</v>
+        <v>401.7028516276325</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959802</v>
+        <v>401.7028516276325</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959802</v>
+        <v>234.0000150023515</v>
       </c>
       <c r="H10" t="n">
-        <v>163.837793613838</v>
+        <v>87.78282822020927</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4984,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U10" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V10" t="n">
-        <v>1169.327103036486</v>
+        <v>1191.821308835076</v>
       </c>
       <c r="W10" t="n">
-        <v>879.9099329995254</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="X10" t="n">
-        <v>879.9099329995254</v>
+        <v>902.4041387981149</v>
       </c>
       <c r="Y10" t="n">
-        <v>879.9099329995254</v>
+        <v>902.4041387981149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611464</v>
@@ -5027,19 +5029,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
         <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5048,43 +5050,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756267</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803938</v>
+        <v>409.1360811687887</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961526</v>
+        <v>904.4616873845476</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622704</v>
+        <v>1501.8401750111</v>
       </c>
       <c r="N12" t="n">
-        <v>1337.934786622704</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O12" t="n">
-        <v>1889.844516861991</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2313.46766635706</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>700.7543264856228</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C13" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D13" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5217,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5241,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1103.195370459393</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y13" t="n">
-        <v>882.4027913158625</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="14">
@@ -5267,19 +5269,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,31 +5296,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5340,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>94.56320294380259</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>244.2098454714573</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M15" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O15" t="n">
-        <v>2129.438138565707</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.2707707770319</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>634.334587849125</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.2179484367892</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1824.417283336614</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1569.732795130727</v>
       </c>
       <c r="W16" t="n">
-        <v>1433.701365648819</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="X16" t="n">
-        <v>1205.711814750802</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y16" t="n">
-        <v>984.9192356072716</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5528,16 +5530,16 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5577,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,28 +5588,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>716.6687843969303</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P18" t="n">
         <v>2319.799627685893</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>726.955532171245</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C19" t="n">
-        <v>558.0193492433381</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D19" t="n">
-        <v>407.9027098310023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038374</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797776</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910812</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580264</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832666</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487571</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510512</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.38585385471</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648823</v>
       </c>
       <c r="W19" t="n">
-        <v>1357.386127043032</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="X19" t="n">
-        <v>1129.396576145015</v>
+        <v>1359.396373079494</v>
       </c>
       <c r="Y19" t="n">
-        <v>908.6039970014847</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="20">
@@ -5726,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5744,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C21" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D21" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G21" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>2381.235169913445</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>2876.560776129204</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M21" t="n">
-        <v>3473.939263755756</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N21" t="n">
-        <v>4101.537227310362</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O21" t="n">
-        <v>4230.570347950412</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P21" t="n">
-        <v>4654.19349744548</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q21" t="n">
-        <v>4654.19349744548</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S21" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T21" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U21" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V21" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W21" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X21" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y21" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2410.966886455156</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2191.365421478097</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1902.290194822295</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1647.605706616408</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1358.188536579448</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614391</v>
       </c>
     </row>
     <row r="23">
@@ -5966,70 +5968,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111727</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075808</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L24" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M24" t="n">
-        <v>1520.445529061503</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N24" t="n">
-        <v>1540.888753373307</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O24" t="n">
-        <v>2092.798483612594</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>781.8178837532264</v>
+        <v>956.9553291057244</v>
       </c>
       <c r="C25" t="n">
-        <v>781.8178837532264</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D25" t="n">
-        <v>631.7012443408906</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.350136867861</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.665648661974</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="W25" t="n">
-        <v>1412.248478625014</v>
+        <v>1398.968683817746</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.258927726996</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.4663485834661</v>
+        <v>1138.603793935964</v>
       </c>
     </row>
     <row r="26">
@@ -6206,67 +6208,67 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>352.5519571452614</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>352.5519571452614</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718133</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C28" t="n">
-        <v>779.6143379232838</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232838</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U28" t="n">
-        <v>2090.842153176861</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V28" t="n">
-        <v>1836.157664970974</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W28" t="n">
-        <v>1546.740494934013</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X28" t="n">
-        <v>1318.750944035996</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y28" t="n">
-        <v>1130.19898568143</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="29">
@@ -6443,40 +6445,40 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>3160.179968880559</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C31" t="n">
-        <v>2991.243785952652</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D31" t="n">
-        <v>2841.127146540317</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E31" t="n">
-        <v>2841.127146540317</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F31" t="n">
-        <v>2694.237199042406</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G31" t="n">
-        <v>2561.485266376193</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H31" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I31" t="n">
         <v>2337.686731866304</v>
@@ -6646,25 +6648,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S31" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T31" t="n">
-        <v>4623.787448650995</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U31" t="n">
-        <v>4334.712221995193</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V31" t="n">
-        <v>4080.027733789307</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W31" t="n">
-        <v>3790.610563752346</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X31" t="n">
-        <v>3562.621012854329</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y31" t="n">
-        <v>3341.828433710799</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
     <row r="32">
@@ -6689,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6716,28 +6718,28 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
         <v>3094.515198591809</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C33" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D33" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G33" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>2233.355914590558</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>2728.681520806317</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>3087.702309109632</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N33" t="n">
-        <v>3715.300272664238</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="O33" t="n">
-        <v>4267.210002903525</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>4690.833152398593</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S33" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T33" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U33" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V33" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W33" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X33" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y33" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>869.9745311434712</v>
+        <v>3195.647281583949</v>
       </c>
       <c r="C34" t="n">
-        <v>701.0383482155643</v>
+        <v>3026.711098656042</v>
       </c>
       <c r="D34" t="n">
-        <v>550.9217088032285</v>
+        <v>2876.594459243707</v>
       </c>
       <c r="E34" t="n">
-        <v>403.0086152208354</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="F34" t="n">
-        <v>256.118667722925</v>
+        <v>2728.681365661314</v>
       </c>
       <c r="G34" t="n">
-        <v>175.9033664000583</v>
+        <v>2561.485266376194</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>2419.773435218392</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="Y34" t="n">
-        <v>1051.622995973711</v>
+        <v>3377.295746414189</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332386</v>
@@ -6950,7 +6952,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7023,19 +7025,19 @@
         <v>738.7889117913853</v>
       </c>
       <c r="M36" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N36" t="n">
-        <v>1577.52840832642</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="O36" t="n">
-        <v>2129.438138565707</v>
+        <v>1888.077129657224</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.917379832663</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T37" t="n">
-        <v>2379.917379832663</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U37" t="n">
-        <v>2090.842153176861</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V37" t="n">
-        <v>1836.866460342035</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W37" t="n">
-        <v>1547.449290305074</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X37" t="n">
-        <v>1319.459739407057</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>221.3431781811722</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>221.3431781811722</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>716.6687843969308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3189.272672481338</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>3020.336489553431</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>2876.594459243706</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H40" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I40" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>4182.156460765733</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>3927.471972559846</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>3638.054802522885</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>3410.065251624868</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>3189.272672481338</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7408,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7421,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7445,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7488,22 +7490,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>923.0670414349511</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1520.445529061503</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>3173.601046153952</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>3173.601046153952</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D43" t="n">
-        <v>3023.484406741616</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E43" t="n">
-        <v>2875.571313159223</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F43" t="n">
-        <v>2728.681365661313</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G43" t="n">
-        <v>2561.485266376193</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H43" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>3571.009098775287</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>3350.216519631757</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7640,10 +7642,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7655,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7682,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>429.5088224239596</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L45" t="n">
-        <v>924.8344286397182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M45" t="n">
-        <v>1268.578514636218</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N45" t="n">
-        <v>1896.176478190825</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2294.325993963485</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2527.587654338368</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3229.995673940461</v>
+        <v>2757.723669558405</v>
       </c>
       <c r="C46" t="n">
-        <v>3061.059491012554</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="D46" t="n">
-        <v>2910.942851600219</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="E46" t="n">
-        <v>2763.029758017825</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="F46" t="n">
-        <v>2728.681365661313</v>
+        <v>2588.787486630498</v>
       </c>
       <c r="G46" t="n">
-        <v>2561.485266376193</v>
+        <v>2421.591387345378</v>
       </c>
       <c r="H46" t="n">
-        <v>2419.773435218391</v>
+        <v>2337.686731866304</v>
       </c>
       <c r="I46" t="n">
         <v>2337.686731866304</v>
@@ -7831,25 +7833,25 @@
         <v>4623.787448650995</v>
       </c>
       <c r="S46" t="n">
-        <v>4623.787448650995</v>
+        <v>4440.9326143059</v>
       </c>
       <c r="T46" t="n">
-        <v>4404.185983673937</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U46" t="n">
-        <v>4115.110757018135</v>
+        <v>3932.255922673039</v>
       </c>
       <c r="V46" t="n">
-        <v>3860.426268812248</v>
+        <v>3677.571434467152</v>
       </c>
       <c r="W46" t="n">
-        <v>3860.426268812248</v>
+        <v>3388.154264430192</v>
       </c>
       <c r="X46" t="n">
-        <v>3632.436717914231</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y46" t="n">
-        <v>3411.644138770701</v>
+        <v>2939.372134388645</v>
       </c>
     </row>
   </sheetData>
@@ -23416,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>57.22910392194134</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23479,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>185.0317184880955</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23659,13 +23661,13 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>126.9182872993606</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,19 +23709,19 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>134.6711151870879</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23896,7 +23898,7 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>210.9709121168618</v>
+        <v>212.9610556929558</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>72.44497470121425</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24174,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>145.3900508477911</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24364,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24379,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24418,10 +24420,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>265.2846401830236</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>186.5330677581681</v>
       </c>
     </row>
     <row r="26">
@@ -24604,19 +24606,19 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>80.44045370237411</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>31.91821458107484</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>34.09972495271737</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194117</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25084,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>86.11098998263078</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25138,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>207.8347205162514</v>
       </c>
     </row>
     <row r="35">
@@ -25309,19 +25311,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -25357,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0.7017074173499793</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25546,22 +25548,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>6.310863011584047</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25783,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4.982661438909759</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25849,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26026,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>111.4161395899837</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.2291039219412</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26083,7 +26085,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="9">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785145</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26316,46 @@
         <v>677359.4601380338</v>
       </c>
       <c r="C2" t="n">
-        <v>677359.4601380337</v>
+        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
-        <v>677359.4601380338</v>
+        <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
+        <v>665895.9447442547</v>
+      </c>
+      <c r="F2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="F2" t="n">
-        <v>665895.9447442546</v>
-      </c>
       <c r="G2" t="n">
+        <v>665895.9447442554</v>
+      </c>
+      <c r="H2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="H2" t="n">
-        <v>665895.9447442548</v>
       </c>
       <c r="I2" t="n">
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442548</v>
+        <v>665895.9447442549</v>
       </c>
       <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
+        <v>665895.9447442553</v>
+      </c>
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="P2" t="n">
         <v>665895.9447442549</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442546</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442547</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442549</v>
-      </c>
-      <c r="P2" t="n">
-        <v>665895.9447442548</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319397</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
         <v>92793.84288319401</v>
@@ -26424,22 +26426,22 @@
         <v>92793.84288319404</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184266</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184278</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
-        <v>13606.80811184281</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184276</v>
+        <v>13606.8081118427</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26451,13 +26453,13 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341463</v>
+        <v>-852113.0690341461</v>
       </c>
       <c r="C6" t="n">
-        <v>476631.6766934466</v>
+        <v>476631.6766934462</v>
       </c>
       <c r="D6" t="n">
-        <v>476631.6766934465</v>
+        <v>476631.676693446</v>
       </c>
       <c r="E6" t="n">
-        <v>225754.1450011497</v>
+        <v>225754.1450011491</v>
       </c>
       <c r="F6" t="n">
-        <v>551166.6068085049</v>
+        <v>551166.6068085053</v>
       </c>
       <c r="G6" t="n">
+        <v>551166.6068085055</v>
+      </c>
+      <c r="H6" t="n">
         <v>551166.606808505</v>
       </c>
-      <c r="H6" t="n">
-        <v>551166.6068085049</v>
-      </c>
       <c r="I6" t="n">
-        <v>551166.6068085051</v>
+        <v>551166.606808505</v>
       </c>
       <c r="J6" t="n">
-        <v>333635.4044112274</v>
+        <v>333635.4044112276</v>
       </c>
       <c r="K6" t="n">
-        <v>551166.6068085051</v>
+        <v>551166.6068085053</v>
       </c>
       <c r="L6" t="n">
-        <v>551166.606808505</v>
+        <v>551166.6068085055</v>
       </c>
       <c r="M6" t="n">
-        <v>466111.5788729928</v>
+        <v>466111.5788729933</v>
       </c>
       <c r="N6" t="n">
-        <v>551166.6068085049</v>
+        <v>551166.6068085053</v>
       </c>
       <c r="O6" t="n">
-        <v>551166.6068085051</v>
+        <v>551166.6068085053</v>
       </c>
       <c r="P6" t="n">
-        <v>551166.606808505</v>
+        <v>551166.6068085053</v>
       </c>
     </row>
   </sheetData>
@@ -26735,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,10 +27381,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>274.7677005521836</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27430,19 +27432,19 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>85.89778947035077</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27537,10 +27539,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27549,10 +27551,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27591,19 +27593,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>55.1481171780874</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>75.50340795433985</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,22 +27615,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>13.62198094778091</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27664,22 +27666,22 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>291.4251788534379</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27780,16 +27782,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>19.35917200451856</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27819,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27859,7 +27861,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>366.89689400784</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27913,10 +27915,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>39.59972826567122</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28011,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>56.1460607921405</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>75.2944157396925</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28147,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>-1.023181539494544e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28612,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>-2.211213280550236e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28746,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>3.016490760880212e-12</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29272,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>-5.487218467042014e-13</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31039,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31048,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R2" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T2" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31200,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P4" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31601,7 +31603,7 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026436</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
@@ -31750,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,37 +31837,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>305.1876769472499</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>344.9857809048113</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,13 +32068,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>100.2764607028593</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32081,34 +32083,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>353.6230700590495</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338208</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647493</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
@@ -32555,34 +32557,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>272.9327299394441</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>151.9914336104081</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
@@ -33026,37 +33028,37 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>399.1902208908131</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>290.6810969936916</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>309.9424824173362</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>359.1374415194863</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>504.7812948344572</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>485.1127032082907</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33742,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>355.4083096598243</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>533.0479862785273</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
         <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>255.6522884173741</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
         <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,34 +34201,34 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>189.0011860883002</v>
+        <v>465.7451325200306</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34235,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34390,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34442,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>489.3502824033309</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>561.8765786214698</v>
@@ -34469,7 +34471,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>171.4104471179106</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P2" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34854,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597693</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
@@ -35404,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>167.3462379728909</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>205.0040068187898</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0.7540807028593007</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35729,25 +35731,25 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>211.4890361370311</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394658</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>477.985332142731</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409638</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,25 +36205,25 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>130.3364854949997</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>20.64972152707474</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36676,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>261.3487819164541</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>159.3393849103583</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>167.3462379728918</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>362.6472609124389</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>342.5164587638463</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37390,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>213.2742757378061</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>399.073578864197</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>128.8146617507074</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
         <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>57.65947400496688</v>
+        <v>334.4034204366973</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38038,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>347.2162484813126</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>427.9021712071395</v>
@@ -38117,7 +38119,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>25.73094315394662</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2811064.814121041</v>
+        <v>2807052.204107048</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283186</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>279.3751023006575</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>241.8544689997841</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,16 +828,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,25 +864,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>249.6801140405074</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>150.2062474346973</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>219.75491779526</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -949,19 +949,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>57.8157898639751</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,13 +1068,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>71.98153210089521</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>157.7822070347172</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>15.03347606442179</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1186,10 +1186,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>92.47445699814261</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1299,19 +1299,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>71.67037196991713</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>21.05800467014559</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,10 +1356,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444152</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701359</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>108.2950343703275</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656054</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>111.3213230702139</v>
       </c>
       <c r="U16" t="n">
-        <v>151.5133592021562</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1830,10 +1830,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>83.06560892428257</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>73.56194264363525</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2089,13 +2089,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.387005480723</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2484,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>130.5513683573768</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>32.05158559392667</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634815</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,7 +2718,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>68.17501931583824</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>1.79977260571614</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428269</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3094,7 +3094,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>240.7377005646511</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3252,10 +3252,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>10.74993283584344</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3444,7 +3444,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S37" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,13 +3675,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>27.0291980517616</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>161.3555494301526</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3915,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4143,7 +4143,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428269</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>222.8161206669567</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1514.348043559526</v>
       </c>
       <c r="E2" t="n">
         <v>1232.150970528558</v>
@@ -4327,10 +4327,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
@@ -4339,7 +4339,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V2" t="n">
-        <v>2717.487232975976</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W2" t="n">
-        <v>2364.718577705862</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1514.348043559526</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927783</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2489.924953962484</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C4" t="n">
-        <v>2320.988771034577</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D4" t="n">
-        <v>2170.872131622242</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E4" t="n">
-        <v>2022.959038039849</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F4" t="n">
-        <v>1876.069090541939</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G4" t="n">
-        <v>1708.366253916658</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>1562.149067134515</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
-        <v>1464.823389952861</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>1509.946022399796</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>1713.933205348673</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L4" t="n">
-        <v>2030.493003797169</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>2374.650049396718</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N4" t="n">
-        <v>2716.058426102582</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>3015.388025022996</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>3247.995525456655</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>3235.775364366698</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>3044.089480193524</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>3044.089480193524</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="U4" t="n">
-        <v>3044.089480193524</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>3044.089480193524</v>
+        <v>1453.325797263567</v>
       </c>
       <c r="W4" t="n">
-        <v>3044.089480193524</v>
+        <v>1163.908627226606</v>
       </c>
       <c r="X4" t="n">
-        <v>2892.365997936254</v>
+        <v>935.919076328589</v>
       </c>
       <c r="Y4" t="n">
-        <v>2671.573418792724</v>
+        <v>715.1264971850588</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>2198.17958617321</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810564</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="W5" t="n">
-        <v>2366.344253709365</v>
+        <v>2961.784676410101</v>
       </c>
       <c r="X5" t="n">
-        <v>2366.344253709365</v>
+        <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>1976.204921733553</v>
+        <v>2198.17958617321</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>753.0765981364621</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>584.1404152085552</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>434.0237757962194</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>286.1106822138263</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574645</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>139.2207347159159</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4758,19 +4758,19 @@
         <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088493</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1767.918581386758</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1383.507193008249</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1155.517642110232</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>934.7250629667018</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1605.601998493311</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1605.601998493311</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1247.33629988656</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
         <v>1232.150970528558</v>
@@ -4801,10 +4801,10 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4822,34 +4822,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="X8" t="n">
-        <v>2382.341170533244</v>
+        <v>3121.906610713899</v>
       </c>
       <c r="Y8" t="n">
-        <v>1992.201838557432</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4874,19 +4874,19 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>720.7556739678752</v>
+        <v>752.7622949738579</v>
       </c>
       <c r="C10" t="n">
-        <v>551.8194910399683</v>
+        <v>583.826112045951</v>
       </c>
       <c r="D10" t="n">
-        <v>401.7028516276325</v>
+        <v>433.7094726336153</v>
       </c>
       <c r="E10" t="n">
-        <v>401.7028516276325</v>
+        <v>285.7963790512222</v>
       </c>
       <c r="F10" t="n">
-        <v>401.7028516276325</v>
+        <v>138.9064315533118</v>
       </c>
       <c r="G10" t="n">
-        <v>234.0000150023515</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>87.78282822020927</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
         <v>111.634748879119</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1446.505797040963</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1191.821308835076</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>902.4041387981149</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>902.4041387981149</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y10" t="n">
-        <v>902.4041387981149</v>
+        <v>934.4107598040977</v>
       </c>
     </row>
     <row r="11">
@@ -5017,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168629</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362701</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797191</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5056,10 +5056,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852257</v>
@@ -5077,16 +5077,16 @@
         <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5117,31 +5117,31 @@
         <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>409.1360811687887</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L12" t="n">
-        <v>904.4616873845476</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M12" t="n">
-        <v>1501.8401750111</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N12" t="n">
-        <v>2129.438138565707</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,19 +5175,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121652</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
@@ -5232,19 +5232,19 @@
         <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5290,10 +5290,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694708</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>94.56320294380259</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J15" t="n">
-        <v>244.2098454714573</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>244.2098454714573</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L15" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263526</v>
+        <v>803.8641191832228</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356194</v>
+        <v>634.9279362553159</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232836</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5430,7 +5430,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2267.47159895366</v>
       </c>
       <c r="U16" t="n">
-        <v>1824.417283336614</v>
+        <v>1978.396372297858</v>
       </c>
       <c r="V16" t="n">
-        <v>1569.732795130727</v>
+        <v>1723.711884091971</v>
       </c>
       <c r="W16" t="n">
-        <v>1280.315625093766</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X16" t="n">
-        <v>1280.315625093766</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>985.5125840134625</v>
       </c>
     </row>
     <row r="17">
@@ -5509,10 +5509,10 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192603</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111718</v>
@@ -5521,25 +5521,25 @@
         <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
         <v>4606.285157492578</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969303</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>956.9553291057244</v>
+        <v>513.8536007400721</v>
       </c>
       <c r="C19" t="n">
-        <v>788.0191461778176</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="D19" t="n">
-        <v>637.9025067654818</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="E19" t="n">
-        <v>489.9894131830887</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="F19" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121652</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270452</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038374</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797776</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910812</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570821</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279806</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580264</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832666</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487571</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510512</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.38585385471</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648823</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1359.396373079494</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1359.396373079494</v>
+        <v>916.294644713842</v>
       </c>
       <c r="Y19" t="n">
-        <v>1138.603793935964</v>
+        <v>695.5020655703119</v>
       </c>
     </row>
     <row r="20">
@@ -5731,70 +5731,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>874.8686257536381</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>705.9324428257312</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>555.8158034133954</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797189</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>983.3403484614391</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111727</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,22 +6007,22 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,31 +6062,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>956.9553291057244</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C25" t="n">
-        <v>788.0191461778176</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D25" t="n">
-        <v>637.9025067654818</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817746</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X25" t="n">
         <v>1170.979132919728</v>
       </c>
       <c r="Y25" t="n">
-        <v>1138.603793935964</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,31 +6299,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H28" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6557,13 +6557,13 @@
         <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2299.457522348532</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2757.723669558405</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E31" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F31" t="n">
-        <v>2588.787486630498</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G31" t="n">
-        <v>2421.591387345378</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>3932.255922673039</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>3677.571434467152</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>3388.154264430192</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>3160.164713532175</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>2939.372134388645</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6682,28 +6682,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332386</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>923.0670414349513</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1520.445529061503</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1520.445529061503</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3195.647281583949</v>
+        <v>559.7594328861248</v>
       </c>
       <c r="C34" t="n">
-        <v>3026.711098656042</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D34" t="n">
-        <v>2876.594459243707</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E34" t="n">
-        <v>2728.681365661314</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>2728.681365661314</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>2561.485266376194</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>2419.773435218392</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>4440.932614305901</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>4221.331149328842</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>3932.25592267304</v>
+        <v>1734.29168600076</v>
       </c>
       <c r="V34" t="n">
-        <v>3677.571434467153</v>
+        <v>1479.607197794873</v>
       </c>
       <c r="W34" t="n">
-        <v>3388.154264430193</v>
+        <v>1190.190027757912</v>
       </c>
       <c r="X34" t="n">
-        <v>3388.154264430193</v>
+        <v>962.2004768598947</v>
       </c>
       <c r="Y34" t="n">
-        <v>3377.295746414189</v>
+        <v>741.4078977163646</v>
       </c>
     </row>
     <row r="35">
@@ -6919,37 +6919,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1336.167399417937</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1888.077129657224</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580261</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>2336.956424518383</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>2117.354959541324</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7423,13 +7423,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
         <v>4562.265728852255</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7569,52 +7569,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7636,16 +7636,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
         <v>378.1925803111715</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2757.723669558405</v>
+        <v>577.8620388433919</v>
       </c>
       <c r="C46" t="n">
-        <v>2588.787486630498</v>
+        <v>408.925855915485</v>
       </c>
       <c r="D46" t="n">
-        <v>2588.787486630498</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E46" t="n">
-        <v>2588.787486630498</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>2588.787486630498</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>2421.591387345378</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673039</v>
+        <v>1752.394291958027</v>
       </c>
       <c r="V46" t="n">
-        <v>3677.571434467152</v>
+        <v>1497.70980375214</v>
       </c>
       <c r="W46" t="n">
-        <v>3388.154264430192</v>
+        <v>1208.292633715179</v>
       </c>
       <c r="X46" t="n">
-        <v>3160.164713532175</v>
+        <v>980.3030828171618</v>
       </c>
       <c r="Y46" t="n">
-        <v>2939.372134388645</v>
+        <v>759.5105036736317</v>
       </c>
     </row>
   </sheetData>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>57.22910392194134</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>106.0841272570744</v>
       </c>
       <c r="U16" t="n">
-        <v>134.6711151870879</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23895,22 +23895,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194129</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>212.9610556929558</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.44497470121425</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24372,16 +24372,16 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>34.97276993489206</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>186.5330677581681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24606,7 +24606,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>80.44045370237411</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194117</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>45.44677382459304</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>207.8347205162514</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S37" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>138.4949402405072</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
     </row>
     <row r="41">
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26031,7 +26031,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26040,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.2291039219412</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>63.36835372228745</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380335</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380338</v>
-      </c>
-      <c r="C2" t="n">
-        <v>677359.4601380335</v>
       </c>
       <c r="D2" t="n">
         <v>677359.4601380334</v>
       </c>
       <c r="E2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.944744255</v>
       </c>
       <c r="G2" t="n">
-        <v>665895.9447442554</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
         <v>665895.9447442549</v>
@@ -26337,25 +26337,25 @@
         <v>665895.9447442549</v>
       </c>
       <c r="J2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="K2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="L2" t="n">
-        <v>665895.9447442553</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="M2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="N2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="O2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442548</v>
       </c>
       <c r="P2" t="n">
-        <v>665895.9447442549</v>
+        <v>665895.9447442547</v>
       </c>
     </row>
     <row r="3">
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972774</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551199</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,31 +26417,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184268</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.8081118427</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
@@ -26453,7 +26453,7 @@
         <v>13606.80811184274</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341461</v>
+        <v>-852113.0690341464</v>
       </c>
       <c r="C6" t="n">
-        <v>476631.6766934462</v>
+        <v>476631.6766934465</v>
       </c>
       <c r="D6" t="n">
         <v>476631.676693446</v>
       </c>
       <c r="E6" t="n">
-        <v>225754.1450011491</v>
+        <v>225406.7657467927</v>
       </c>
       <c r="F6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541482</v>
       </c>
       <c r="G6" t="n">
-        <v>551166.6068085055</v>
+        <v>550819.2275541483</v>
       </c>
       <c r="H6" t="n">
-        <v>551166.606808505</v>
+        <v>550819.2275541485</v>
       </c>
       <c r="I6" t="n">
-        <v>551166.606808505</v>
+        <v>550819.2275541482</v>
       </c>
       <c r="J6" t="n">
-        <v>333635.4044112276</v>
+        <v>333288.0251568705</v>
       </c>
       <c r="K6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="L6" t="n">
-        <v>551166.6068085055</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="M6" t="n">
-        <v>466111.5788729933</v>
+        <v>465764.199618636</v>
       </c>
       <c r="N6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="O6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541481</v>
       </c>
       <c r="P6" t="n">
-        <v>551166.6068085053</v>
+        <v>550819.2275541479</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022925</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,22 +26804,22 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973563</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>102.5552677716043</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>85.89778947035077</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27548,16 +27548,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,25 +27584,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>2.457529283320582</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>75.50340795433985</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -27618,7 +27618,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>145.5179739757475</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27669,19 +27669,19 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>291.4251788534379</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>24.37088830894288</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>94.3554362891108</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>366.89689400784</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27906,10 +27906,10 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>277.2566436803264</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>94.3554362891111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>75.2944157396925</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,13 +28061,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28149,7 +28149,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28614,7 +28614,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>-2.211213280550236e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -28748,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>3.016490760880212e-12</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
@@ -29274,7 +29274,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-5.487218467042014e-13</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>305.1876769472499</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473074</v>
@@ -31852,19 +31852,19 @@
         <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>332.1692388321062</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,25 +32074,25 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>100.2764607028593</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32101,10 +32101,10 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236488</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>620.1193660647493</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>290.6810969936916</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33183,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,37 +33265,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>359.1374415194863</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>485.1127032082907</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>533.0479862785273</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669214</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>465.7451325200306</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34444,16 +34444,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>167.3462379728909</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
         <v>500.3288951674332</v>
@@ -35500,19 +35500,19 @@
         <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>189.5729943876618</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0.7540807028593007</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35749,7 +35749,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683793</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>477.985332142731</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409638</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
         <v>394.3420143191315</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,31 +36433,31 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,31 +36670,31 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>159.3393849103583</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,25 +36916,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>219.1556674334648</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>342.5164587638463</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>399.073578864197</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,16 +37864,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>334.4034204366973</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,16 +38092,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_33.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2807052.204107048</v>
+        <v>2808812.734409835</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283182</v>
       </c>
     </row>
     <row r="9">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>279.3751023006575</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>113.4630934215086</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -727,7 +727,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -828,13 +828,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>249.6801140405074</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>80.00124118081825</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -895,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>240.7199646803068</v>
       </c>
       <c r="C5" t="n">
-        <v>219.75491779526</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>18.69174667297921</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>71.98153210089521</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -1119,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>109.3296738389808</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>92.47445699814261</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>71.67037196991713</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>220.2858449881291</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1381,13 +1381,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417131</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444152</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1533,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>266.9172080589757</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1618,7 +1618,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G14" t="n">
         <v>409.8033385187866</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1675,7 +1675,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>111.3213230702139</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>111.5512144998722</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1849,7 +1849,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206834</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1894,10 +1894,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
         <v>250.9057009881286</v>
@@ -2019,7 +2019,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428257</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,13 +2368,13 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2481,7 +2481,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>130.5513683573768</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2535,7 +2535,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>80.08971311158751</v>
       </c>
     </row>
     <row r="26">
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2727,13 +2727,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H28" t="n">
-        <v>1.79977260571614</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2967,7 +2967,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3046,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>9.146142788179874</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3243,7 +3243,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>240.7377005646511</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3280,10 +3280,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766861</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,7 +3666,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3675,10 +3675,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833861</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3729,7 +3729,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>161.3555494301526</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.0280580960838</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3960,7 +3960,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>25.52471385612679</v>
       </c>
       <c r="U46" t="n">
-        <v>222.8161206669567</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1514.348043559526</v>
+        <v>2006.793820398077</v>
       </c>
       <c r="C2" t="n">
-        <v>1514.348043559526</v>
+        <v>1637.831303457666</v>
       </c>
       <c r="D2" t="n">
-        <v>1514.348043559526</v>
+        <v>1279.565604850915</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>893.7773522526709</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>779.1681669784198</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I2" t="n">
         <v>66.51211643218342</v>
@@ -4336,7 +4336,7 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
         <v>1573.776739001389</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136266</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2961.784676410102</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V2" t="n">
-        <v>2630.721789066532</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W2" t="n">
-        <v>2277.953133796417</v>
+        <v>2766.859418723279</v>
       </c>
       <c r="X2" t="n">
-        <v>1904.487375535337</v>
+        <v>2393.393660462199</v>
       </c>
       <c r="Y2" t="n">
-        <v>1514.348043559526</v>
+        <v>2393.393660462199</v>
       </c>
     </row>
     <row r="3">
@@ -4385,70 +4385,70 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,22 +4464,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>533.4780323548191</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>364.5418494269122</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>214.4252100145765</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218342</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218342</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
         <v>66.51211643218342</v>
@@ -4524,16 +4524,16 @@
         <v>1705.527932658019</v>
       </c>
       <c r="V4" t="n">
-        <v>1453.325797263567</v>
+        <v>1705.527932658019</v>
       </c>
       <c r="W4" t="n">
-        <v>1163.908627226606</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X4" t="n">
-        <v>935.919076328589</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y4" t="n">
-        <v>715.1264971850588</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,7 +4543,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2198.17958617321</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C5" t="n">
         <v>1976.204921733553</v>
@@ -4564,7 +4564,7 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4585,34 +4585,34 @@
         <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2961.784676410101</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
         <v>2588.318918149022</v>
       </c>
       <c r="Y5" t="n">
-        <v>2198.17958617321</v>
+        <v>2588.318918149022</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4679,7 +4679,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4688,10 +4688,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>753.0765981364621</v>
+        <v>698.5757713318899</v>
       </c>
       <c r="C7" t="n">
-        <v>584.1404152085552</v>
+        <v>529.639588403983</v>
       </c>
       <c r="D7" t="n">
-        <v>434.0237757962194</v>
+        <v>379.5229489916472</v>
       </c>
       <c r="E7" t="n">
-        <v>286.1106822138263</v>
+        <v>231.6098554092541</v>
       </c>
       <c r="F7" t="n">
-        <v>139.2207347159159</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="G7" t="n">
-        <v>139.2207347159159</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>139.2207347159159</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U7" t="n">
-        <v>1638.191681214136</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V7" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.507193008249</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.517642110232</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.7250629667018</v>
+        <v>880.2242361621296</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4828,28 +4828,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V8" t="n">
-        <v>3215.315153136265</v>
+        <v>2884.252265792695</v>
       </c>
       <c r="W8" t="n">
-        <v>3215.315153136265</v>
+        <v>2531.48361052258</v>
       </c>
       <c r="X8" t="n">
-        <v>3121.906610713899</v>
+        <v>2158.017852261501</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>2158.017852261501</v>
       </c>
     </row>
     <row r="9">
@@ -4859,34 +4859,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
         <v>765.151745215813</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>752.7622949738579</v>
+        <v>530.2513404403938</v>
       </c>
       <c r="C10" t="n">
-        <v>583.826112045951</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="D10" t="n">
-        <v>433.7094726336153</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E10" t="n">
-        <v>285.7963790512222</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F10" t="n">
-        <v>138.9064315533118</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1704.783593555029</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1450.099105349142</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1160.681935312181</v>
       </c>
       <c r="X10" t="n">
-        <v>1155.203338947628</v>
+        <v>932.6923844141637</v>
       </c>
       <c r="Y10" t="n">
-        <v>934.4107598040977</v>
+        <v>711.8998052706336</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C11" t="n">
         <v>1948.813509611465</v>
@@ -5026,22 +5026,22 @@
         <v>1590.547811004715</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362701</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075809</v>
@@ -5050,7 +5050,7 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
@@ -5065,10 +5065,10 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793926</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>783.5579673960132</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>614.6217844681063</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5223,28 +5223,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603202</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533436</v>
+        <v>1938.2863919474</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327549</v>
+        <v>1683.601903741513</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.091371290588</v>
+        <v>1413.9885622678</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925706</v>
+        <v>1185.999011369783</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>965.2064322262529</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5275,10 +5275,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075811</v>
@@ -5354,13 +5354,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>803.8641191832228</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C16" t="n">
-        <v>634.9279362553159</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D16" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F16" t="n">
         <v>484.8112968429802</v>
@@ -5430,7 +5430,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797189</v>
@@ -5445,7 +5445,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5454,34 +5454,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T16" t="n">
-        <v>2267.47159895366</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U16" t="n">
-        <v>1978.396372297858</v>
+        <v>2157.887856924459</v>
       </c>
       <c r="V16" t="n">
-        <v>1723.711884091971</v>
+        <v>1903.203368718572</v>
       </c>
       <c r="W16" t="n">
-        <v>1434.29471405501</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X16" t="n">
-        <v>1206.305163156993</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>985.5125840134625</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5509,13 +5509,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192603</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075811</v>
@@ -5533,22 +5533,22 @@
         <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
         <v>3820.749612123003</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,7 +5588,7 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
         <v>95.58405025273906</v>
@@ -5597,7 +5597,7 @@
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5606,7 +5606,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5682,7 +5682,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
         <v>1665.560112570818</v>
@@ -5691,13 +5691,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487568</v>
@@ -5715,10 +5715,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5734,13 +5734,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,19 +5749,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,13 +5828,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5910,52 +5910,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5983,16 +5983,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6007,19 +6007,19 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
         <v>4151.812499466573</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>768.5380889459582</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>599.6019060180513</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>449.4852666057155</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>1170.979132919728</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>950.1865537761979</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="26">
@@ -6217,58 +6217,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6317,7 +6317,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6682,31 +6682,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
         <v>2206.558663014778</v>
@@ -6715,7 +6715,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>559.7594328861248</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C34" t="n">
-        <v>390.823249958218</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D34" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458822</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797187</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>244.7670222746423</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>103.0551911168404</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1734.29168600076</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1479.607197794873</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1190.190027757912</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>962.2004768598947</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y34" t="n">
-        <v>741.4078977163646</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="35">
@@ -6928,28 +6928,28 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,19 +7071,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998291</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7399,31 +7399,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>803.2707707770323</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>634.3345878491255</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>984.9192356072721</v>
       </c>
     </row>
     <row r="44">
@@ -7645,13 +7645,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7724,13 +7724,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L45" t="n">
         <v>1074.481071167373</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>577.8620388433919</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C46" t="n">
-        <v>408.925855915485</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D46" t="n">
-        <v>408.925855915485</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>261.0127623330919</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U46" t="n">
-        <v>1752.394291958027</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V46" t="n">
-        <v>1497.70980375214</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W46" t="n">
-        <v>1208.292633715179</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X46" t="n">
-        <v>980.3030828171618</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y46" t="n">
-        <v>759.5105036736317</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
   </sheetData>
@@ -23421,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>19.60579027761531</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>106.0841272570744</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>114.158440889165</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194129</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24378,7 +24378,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>34.97276993489206</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
     </row>
     <row r="26">
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24855,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>72.11969353038565</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25131,7 +25131,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>45.44677382459304</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>57.22910392194177</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393024</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0.5874149221285734</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25848,7 +25848,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>191.8807364711615</v>
       </c>
       <c r="U46" t="n">
-        <v>63.36835372228745</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>759419.4279785143</v>
+        <v>759419.4279785142</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785143</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>759419.4279785142</v>
+        <v>759419.4279785145</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>677359.4601380338</v>
+      </c>
+      <c r="C2" t="n">
         <v>677359.4601380335</v>
       </c>
-      <c r="C2" t="n">
-        <v>677359.4601380338</v>
-      </c>
       <c r="D2" t="n">
-        <v>677359.4601380334</v>
+        <v>677359.460138034</v>
       </c>
       <c r="E2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="F2" t="n">
-        <v>665895.944744255</v>
+        <v>665895.9447442552</v>
       </c>
       <c r="G2" t="n">
         <v>665895.9447442552</v>
       </c>
       <c r="H2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="I2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="J2" t="n">
+        <v>665895.9447442552</v>
+      </c>
+      <c r="K2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="L2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="I2" t="n">
+      <c r="M2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="N2" t="n">
+        <v>665895.944744255</v>
+      </c>
+      <c r="O2" t="n">
         <v>665895.9447442549</v>
       </c>
-      <c r="J2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="K2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="L2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="M2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="N2" t="n">
-        <v>665895.9447442548</v>
-      </c>
-      <c r="O2" t="n">
-        <v>665895.9447442548</v>
-      </c>
       <c r="P2" t="n">
-        <v>665895.9447442547</v>
+        <v>665895.944744255</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073558</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>92793.84288319401</v>
+      </c>
+      <c r="C4" t="n">
         <v>92793.84288319404</v>
-      </c>
-      <c r="C4" t="n">
-        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
         <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184268</v>
+        <v>13606.80811184266</v>
       </c>
       <c r="F4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26478,7 +26478,7 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-852113.0690341464</v>
+        <v>-852113.069034146</v>
       </c>
       <c r="C6" t="n">
-        <v>476631.6766934465</v>
+        <v>476631.6766934462</v>
       </c>
       <c r="D6" t="n">
-        <v>476631.676693446</v>
+        <v>476631.6766934468</v>
       </c>
       <c r="E6" t="n">
-        <v>225406.7657467927</v>
+        <v>225719.4070757139</v>
       </c>
       <c r="F6" t="n">
-        <v>550819.2275541482</v>
+        <v>551131.8688830698</v>
       </c>
       <c r="G6" t="n">
-        <v>550819.2275541483</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="H6" t="n">
-        <v>550819.2275541485</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="I6" t="n">
-        <v>550819.2275541482</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="J6" t="n">
-        <v>333288.0251568705</v>
+        <v>333600.6664857921</v>
       </c>
       <c r="K6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="L6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="M6" t="n">
-        <v>465764.199618636</v>
+        <v>466076.8409475576</v>
       </c>
       <c r="N6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830696</v>
       </c>
       <c r="O6" t="n">
-        <v>550819.2275541481</v>
+        <v>551131.8688830695</v>
       </c>
       <c r="P6" t="n">
-        <v>550819.2275541479</v>
+        <v>551131.8688830696</v>
       </c>
     </row>
   </sheetData>
@@ -26792,10 +26792,10 @@
         <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26804,16 +26804,16 @@
         <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483761</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,19 +27378,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>102.5552677716043</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>293.4129523202029</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27399,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27548,13 +27548,13 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -27596,10 +27596,10 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>2.457529283320582</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>206.5217571557727</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,10 +27615,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>142.0138769831738</v>
       </c>
       <c r="C5" t="n">
-        <v>145.5179739757475</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>126.729301349952</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>24.37088830894288</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27852,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>273.4041678244998</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27906,22 +27906,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>277.2566436803264</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>94.3554362891111</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28067,7 +28067,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>65.92599321748378</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,7 +31837,7 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
@@ -31849,13 +31849,13 @@
         <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321062</v>
+        <v>340.4395077511221</v>
       </c>
       <c r="P12" t="n">
         <v>561.87657862147</v>
@@ -31864,7 +31864,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.6544928674244</v>
@@ -31989,40 +31989,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32031,7 +32031,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,7 +32104,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32147,13 +32147,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32171,7 +32171,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236488</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558009</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,7 +32341,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,19 +33028,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236497</v>
       </c>
       <c r="Q38" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,16 +34450,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
         <v>398.7616643558013</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754089</v>
@@ -35497,13 +35497,13 @@
         <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876618</v>
+        <v>197.8432633066776</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071398</v>
@@ -35512,7 +35512,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35816,7 +35816,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683793</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113564</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
         <v>264.332588409635</v>
@@ -36053,7 +36053,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
         <v>373.2618997060455</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396425</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683802</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,7 +38092,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
@@ -38101,13 +38101,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
         <v>256.1654199113569</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
